--- a/biology/Zoologie/Holbrookia_elegans/Holbrookia_elegans.xlsx
+++ b/biology/Zoologie/Holbrookia_elegans/Holbrookia_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holbrookia elegans est une espèce de sauriens de la famille des Phrynosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holbrookia elegans est une espèce de sauriens de la famille des Phrynosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans le Nouveau-Mexique ;
 au Mexique dans le Chihuahua.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lézard est terrestre et vit dans des zones désertiques, arides ou des forêts clairsemées entre 300 et 1 200 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lézard est terrestre et vit dans des zones désertiques, arides ou des forêts clairsemées entre 300 et 1 200 m d'altitude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 février 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 février 2013) :
 Holbrookia elegans elegans Bocourt, 1874
 Holbrookia elegans thermophila Barbour, 1921</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Barbour, 1921 : A new lizard from Guaymas, Mexico. Proceedings of the New England Zoölogical Club, vol. 7, p. 79-80 (texte intégral).
 Bocourt, 1874 : Études sur les Reptiles. Mission Scientifique au Mexique et dans l'Amérique Centrale. Recherches Zoologiques. vol. 3 (sect. 1). Imprimerie Impériale, Paris.</t>
